--- a/templates/report_vg.xlsx
+++ b/templates/report_vg.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>Дата инвестирования</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Кол-во рабочих дней  в неделе</t>
   </si>
   <si>
-    <t>ОСНОВНОЙ ОТЧЕТ VG FINANCING</t>
-  </si>
-  <si>
     <t>Дата снятия отчета:</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t xml:space="preserve"> $ 8,738.61 </t>
   </si>
   <si>
-    <t>Внесено инвестором на счет VG Financing</t>
-  </si>
-  <si>
     <t>Капитал + реинвестировано</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>ИНВЕСТИЦИОННАЯ СВЕРКА</t>
   </si>
   <si>
-    <t>Итого выплачено VG Financing</t>
-  </si>
-  <si>
     <t>Снятие средств на ${table:remittance.date}</t>
   </si>
   <si>
@@ -409,24 +400,6 @@
   </si>
   <si>
     <t>Собрано за отч. неделю</t>
-  </si>
-  <si>
-    <t>Комиссия VG Financing за отч. неделю</t>
-  </si>
-  <si>
-    <t>ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>http://vgfinancing.com</t>
-  </si>
-  <si>
-    <t>http://ccs.msk.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powered by:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official site:   </t>
   </si>
   <si>
     <t>${initial_capital_investments}</t>
@@ -475,17 +448,29 @@
   <si>
     <t>OUTSTANDING RECEIVABLES ?---</t>
   </si>
+  <si>
+    <t>ОСНОВНОЙ ОТЧЕТ</t>
+  </si>
+  <si>
+    <t>Комиссия  за отч. неделю</t>
+  </si>
+  <si>
+    <t>Внесено инвестором на счет компании</t>
+  </si>
+  <si>
+    <t>Итого выплачено компании</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,15 +681,6 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -780,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -818,15 +794,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -857,16 +824,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -895,13 +861,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,10 +882,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -952,10 +917,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -982,9 +947,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -992,11 +954,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1008,12 +970,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,8 +990,8 @@
     <xf numFmtId="14" fontId="21" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,31 +1002,31 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,8 +1041,8 @@
     <xf numFmtId="14" fontId="21" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,11 +1053,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,8 +1072,8 @@
     <xf numFmtId="14" fontId="21" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,8 +1089,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1143,7 +1105,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,24 +1120,16 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,9 +1140,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -1201,6 +1154,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>337073</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="123825"/>
+          <a:ext cx="2108723" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV78"/>
+  <dimension ref="A1:AV74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1520,23 +1522,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:39" s="53" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="121" t="s">
+    <row r="2" spans="1:39" s="51" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="F2" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="122" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1544,23 +1544,23 @@
     <row r="4" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:39" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -1585,23 +1585,23 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -1626,33 +1626,33 @@
     </row>
     <row r="7" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65" t="s">
+      <c r="I7" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
@@ -1677,23 +1677,23 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
@@ -1717,8 +1717,8 @@
       <c r="AM8" s="11"/>
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
@@ -1767,31 +1767,31 @@
       <c r="R9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
     </row>
     <row r="10" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="75"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="35"/>
+      <c r="B11" s="34"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
@@ -1889,37 +1889,37 @@
     </row>
     <row r="12" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="35"/>
-      <c r="E12" s="26" t="s">
+      <c r="B12" s="34"/>
+      <c r="E12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="31"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="35"/>
+      <c r="B13" s="34"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -1969,23 +1969,23 @@
     </row>
     <row r="14" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -2051,22 +2051,22 @@
     </row>
     <row r="16" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -2092,22 +2092,22 @@
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
       <c r="R17" s="13"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
@@ -2133,32 +2133,32 @@
     </row>
     <row r="18" spans="1:48" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="89" t="s">
+      <c r="K18" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="13"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -2184,22 +2184,22 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
       <c r="R19" s="13"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -2223,89 +2223,89 @@
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
     </row>
-    <row r="20" spans="1:48" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" s="22" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="76" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="81" t="s">
+      <c r="N20" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="80" t="s">
+      <c r="P20" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="80" t="s">
+      <c r="Q20" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="80" t="s">
-        <v>64</v>
-      </c>
       <c r="R20" s="11"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
-      <c r="AV20" s="24"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
     </row>
     <row r="21" spans="1:48" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
@@ -2325,13 +2325,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>59</v>
+      <c r="K21" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>22</v>
@@ -2342,41 +2342,41 @@
       <c r="N21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>59</v>
+      <c r="O21" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="P21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="33"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
@@ -2400,68 +2400,68 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="11"/>
     </row>
-    <row r="23" spans="1:48" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="39"/>
-      <c r="E23" s="26" t="s">
+    <row r="23" spans="1:48" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="38"/>
+      <c r="E23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="29" t="s">
+      <c r="Q23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -2487,22 +2487,22 @@
     </row>
     <row r="25" spans="1:48" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -2569,26 +2569,26 @@
     </row>
     <row r="27" spans="1:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -2608,28 +2608,28 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
     </row>
-    <row r="28" spans="1:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
@@ -2651,36 +2651,36 @@
     </row>
     <row r="29" spans="1:48" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99" t="s">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="102" t="s">
+      <c r="K29" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
       <c r="V29" s="13"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -2702,26 +2702,26 @@
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
       <c r="V30" s="13"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -2743,60 +2743,60 @@
     </row>
     <row r="31" spans="1:48" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="76" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="76" t="s">
+      <c r="H31" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="J31" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="K31" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="76" t="s">
+      <c r="L31" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="76" t="s">
+      <c r="M31" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="76" t="s">
+      <c r="N31" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="O31" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="76" t="s">
+      <c r="P31" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="P31" s="76" t="s">
+      <c r="Q31" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="Q31" s="76" t="s">
+      <c r="R31" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="R31" s="76" t="s">
+      <c r="S31" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="S31" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="T31" s="76"/>
-      <c r="U31" s="76"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="32" spans="1:48" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="38"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
         <v>36</v>
       </c>
@@ -2829,46 +2829,46 @@
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -2891,26 +2891,26 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -2932,54 +2932,54 @@
     </row>
     <row r="34" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="32"/>
-      <c r="E34" s="129" t="s">
+      <c r="B34" s="31"/>
+      <c r="E34" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="130" t="s">
+      <c r="F34" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="130" t="s">
+      <c r="H34" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="130" t="s">
+      <c r="I34" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="O34" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="S34" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="130" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="K34" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="M34" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="N34" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="O34" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="P34" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q34" s="130" t="s">
-        <v>98</v>
-      </c>
-      <c r="R34" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="S34" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="T34" s="131"/>
-      <c r="U34" s="131"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="125"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="32"/>
+      <c r="B35" s="31"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -3023,26 +3023,26 @@
     </row>
     <row r="36" spans="1:39" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="40" spans="1:39" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3228,12 +3228,12 @@
     </row>
     <row r="41" spans="1:39" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="110"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="108"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="52"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3311,237 +3311,237 @@
       <c r="AM42" s="11"/>
     </row>
     <row r="43" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="39"/>
+    </row>
+    <row r="44" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="39"/>
+      <c r="AM44" s="39"/>
+    </row>
+    <row r="45" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="40"/>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="40"/>
-      <c r="AH43" s="40"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
-      <c r="AM43" s="40"/>
-    </row>
-    <row r="44" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="113" t="s">
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="39"/>
+    </row>
+    <row r="46" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="40"/>
-      <c r="AH44" s="40"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="40"/>
-      <c r="AL44" s="40"/>
-      <c r="AM44" s="40"/>
-    </row>
-    <row r="45" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="115" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="44" t="s">
+      <c r="E46" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="39"/>
+    </row>
+    <row r="47" spans="1:39" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
-      <c r="AC45" s="40"/>
-      <c r="AD45" s="40"/>
-      <c r="AE45" s="40"/>
-      <c r="AF45" s="40"/>
-      <c r="AG45" s="40"/>
-      <c r="AH45" s="40"/>
-      <c r="AI45" s="40"/>
-      <c r="AJ45" s="40"/>
-      <c r="AK45" s="40"/>
-      <c r="AL45" s="40"/>
-      <c r="AM45" s="40"/>
-    </row>
-    <row r="46" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="40"/>
-      <c r="AC46" s="40"/>
-      <c r="AD46" s="40"/>
-      <c r="AE46" s="40"/>
-      <c r="AF46" s="40"/>
-      <c r="AG46" s="40"/>
-      <c r="AH46" s="40"/>
-      <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
-      <c r="AK46" s="40"/>
-      <c r="AL46" s="40"/>
-      <c r="AM46" s="40"/>
-    </row>
-    <row r="47" spans="1:39" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="40"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="40"/>
-      <c r="AM47" s="40"/>
+      <c r="E47" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="45"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -3582,7 +3582,7 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="45"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -3623,7 +3623,7 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -3664,7 +3664,7 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="45"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="52" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="52"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -3744,12 +3744,12 @@
     </row>
     <row r="53" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="116"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="114"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="54" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="117"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="115"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -3828,13 +3828,13 @@
     </row>
     <row r="55" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="113" t="s">
-        <v>137</v>
+      <c r="B55" s="48"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="111" t="s">
+        <v>128</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="56" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="113" t="s">
-        <v>141</v>
+      <c r="B56" s="48"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="111" t="s">
+        <v>132</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="57" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="113" t="s">
-        <v>125</v>
+      <c r="B57" s="48"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="111" t="s">
+        <v>122</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -3963,9 +3963,9 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="52"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="119"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="4"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -4004,9 +4004,9 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="52"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="119"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="4"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -4045,9 +4045,9 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="119"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="4"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -4086,9 +4086,9 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="52"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="119"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="4"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -4127,17 +4127,17 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="52"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="119"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="46"/>
+      <c r="F62" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="45"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -4170,23 +4170,23 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="52"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="48" t="s">
+      <c r="F63" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I63" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="46"/>
+      <c r="I63" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="45"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
@@ -4219,21 +4219,21 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="52"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="I64" s="47"/>
-      <c r="J64" s="46"/>
+      <c r="F64" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="46"/>
+      <c r="J64" s="45"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
@@ -4266,17 +4266,17 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="46"/>
+      <c r="F65" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="47"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="45"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
@@ -4309,21 +4309,21 @@
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="52"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G66" s="48" t="s">
+      <c r="F66" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="47"/>
-      <c r="J66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="45"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
@@ -4356,21 +4356,21 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="52"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="48" t="s">
+      <c r="F67" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H67" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="I67" s="47"/>
-      <c r="J67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="45"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
@@ -4403,13 +4403,13 @@
     </row>
     <row r="68" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="113" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="113" t="s">
-        <v>142</v>
+      <c r="D68" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="111" t="s">
+        <v>133</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -4448,15 +4448,15 @@
     </row>
     <row r="69" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="50"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="113" t="s">
+      <c r="D69" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="109"/>
+      <c r="F69" s="107"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -4493,15 +4493,15 @@
     </row>
     <row r="70" spans="1:39" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="109"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="107"/>
       <c r="G70" s="10"/>
       <c r="H70" s="11"/>
       <c r="I70" s="10"/>
@@ -4538,12 +4538,12 @@
     </row>
     <row r="71" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="51"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="49"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -4702,33 +4702,10 @@
       <c r="AL74" s="11"/>
       <c r="AM74" s="11"/>
     </row>
-    <row r="75" spans="1:39" s="125" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="126" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="127" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="128" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="22"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D75" r:id="rId1"/>
-    <hyperlink ref="D77" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/templates/report_vg.xlsx
+++ b/templates/report_vg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
   <si>
     <t>Дата инвестирования</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Рефинансировано</t>
   </si>
   <si>
-    <t>Фактически зачислено в пользу VG Financing</t>
-  </si>
-  <si>
     <t>${table.fin.final_profit}</t>
   </si>
   <si>
@@ -420,32 +417,6 @@
     <t>${reinvestment_tail}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VG</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FINANCING </t>
-    </r>
-  </si>
-  <si>
     <t>OUTSTANDING RECEIVABLES ?---</t>
   </si>
   <si>
@@ -459,18 +430,21 @@
   </si>
   <si>
     <t>Итого выплачено компании</t>
+  </si>
+  <si>
+    <t>Фактически зачислено в пользу Fresh capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,15 +513,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -844,13 +809,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -888,10 +853,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,10 +868,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -917,88 +882,88 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1012,75 +977,75 @@
     <xf numFmtId="43" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1093,16 +1058,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,13 +1085,13 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,16 +1100,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1160,16 +1125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39727</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>337073</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>906946</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
+      <xdr:rowOff>1066800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,21 +1144,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="123825"/>
-          <a:ext cx="2108723" cy="962025"/>
+          <a:off x="611227" y="247650"/>
+          <a:ext cx="867219" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,9 +1165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1246,7 +1205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1280,7 +1239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1315,10 +1273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1491,14 +1448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.140625" style="1" customWidth="1"/>
@@ -1521,11 +1478,9 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:39" s="51" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="52" t="s">
-        <v>134</v>
-      </c>
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="2" spans="1:39" s="51" customFormat="1" ht="95.25" customHeight="1">
+      <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="F2" s="119" t="s">
         <v>42</v>
@@ -1540,9 +1495,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:39" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="11" customFormat="1"/>
+    <row r="4" spans="1:39" s="11" customFormat="1"/>
+    <row r="5" spans="1:39" ht="6.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1583,7 +1538,7 @@
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="11"/>
       <c r="B6" s="57"/>
       <c r="C6" s="58"/>
@@ -1624,12 +1579,12 @@
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
     </row>
-    <row r="7" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="23.25">
       <c r="A7" s="11"/>
       <c r="B7" s="57"/>
       <c r="C7" s="58"/>
       <c r="D7" s="59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="60"/>
       <c r="F7" s="61"/>
@@ -1675,7 +1630,7 @@
       <c r="AL7" s="11"/>
       <c r="AM7" s="11"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="11"/>
       <c r="B8" s="57"/>
       <c r="C8" s="58"/>
@@ -1716,7 +1671,7 @@
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
     </row>
-    <row r="9" spans="1:39" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A9" s="54"/>
       <c r="B9" s="72"/>
       <c r="C9" s="20" t="s">
@@ -1789,7 +1744,7 @@
       <c r="AL9" s="54"/>
       <c r="AM9" s="54"/>
     </row>
-    <row r="10" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="24.75" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="73"/>
       <c r="C10" s="8" t="s">
@@ -1862,7 +1817,7 @@
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="A11" s="11"/>
       <c r="B11" s="34"/>
       <c r="S11" s="11"/>
@@ -1887,7 +1842,7 @@
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
     </row>
-    <row r="12" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="30" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="34"/>
       <c r="E12" s="25" t="s">
@@ -1942,7 +1897,7 @@
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="11"/>
       <c r="B13" s="34"/>
       <c r="S13" s="11"/>
@@ -1967,7 +1922,7 @@
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
     </row>
-    <row r="14" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="5.25" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2008,7 +1963,7 @@
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
     </row>
-    <row r="15" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="27.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2049,7 +2004,7 @@
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
     </row>
-    <row r="16" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="5.25" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -2090,7 +2045,7 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48">
       <c r="A17" s="11"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -2131,7 +2086,7 @@
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
     </row>
-    <row r="18" spans="1:48" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" ht="23.25">
       <c r="A18" s="11"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -2182,7 +2137,7 @@
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48">
       <c r="A19" s="11"/>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -2223,7 +2178,7 @@
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
     </row>
-    <row r="20" spans="1:48" s="22" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" s="22" customFormat="1" ht="45.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="35"/>
       <c r="C20" s="74" t="s">
@@ -2269,7 +2224,7 @@
         <v>47</v>
       </c>
       <c r="Q20" s="78" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="R20" s="11"/>
       <c r="S20" s="56"/>
@@ -2303,7 +2258,7 @@
       <c r="AU20" s="23"/>
       <c r="AV20" s="23"/>
     </row>
-    <row r="21" spans="1:48" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A21" s="55"/>
       <c r="B21" s="36"/>
       <c r="C21" s="8" t="s">
@@ -2374,7 +2329,7 @@
       <c r="AL21" s="55"/>
       <c r="AM21" s="55"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48">
       <c r="A22" s="11"/>
       <c r="B22" s="33"/>
       <c r="R22" s="11"/>
@@ -2400,7 +2355,7 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="11"/>
     </row>
-    <row r="23" spans="1:48" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" s="23" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="56"/>
       <c r="B23" s="38"/>
       <c r="E23" s="25" t="s">
@@ -2459,7 +2414,7 @@
       <c r="AL23" s="56"/>
       <c r="AM23" s="56"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48">
       <c r="A24" s="11"/>
       <c r="B24" s="33"/>
       <c r="R24" s="11"/>
@@ -2485,7 +2440,7 @@
       <c r="AL24" s="11"/>
       <c r="AM24" s="11"/>
     </row>
-    <row r="25" spans="1:48" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="5.25" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -2526,7 +2481,7 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
     </row>
-    <row r="26" spans="1:48" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="32.25" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2567,7 +2522,7 @@
       <c r="AL26" s="11"/>
       <c r="AM26" s="11"/>
     </row>
-    <row r="27" spans="1:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="8.25" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
@@ -2608,7 +2563,7 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
     </row>
-    <row r="28" spans="1:48" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" s="32" customFormat="1">
       <c r="A28" s="13"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
@@ -2649,12 +2604,12 @@
       <c r="AL28" s="13"/>
       <c r="AM28" s="13"/>
     </row>
-    <row r="29" spans="1:48" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" ht="23.25">
       <c r="A29" s="11"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
       <c r="D29" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="95"/>
       <c r="F29" s="95"/>
@@ -2700,7 +2655,7 @@
       <c r="AL29" s="11"/>
       <c r="AM29" s="11"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48">
       <c r="A30" s="11"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
@@ -2741,7 +2696,7 @@
       <c r="AL30" s="11"/>
       <c r="AM30" s="11"/>
     </row>
-    <row r="31" spans="1:48" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="45" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="31"/>
       <c r="C31" s="74" t="s">
@@ -2754,46 +2709,46 @@
         <v>40</v>
       </c>
       <c r="F31" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="74" t="s">
-        <v>91</v>
-      </c>
       <c r="H31" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="74" t="s">
+      <c r="J31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="74" t="s">
+      <c r="K31" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="74" t="s">
+      <c r="L31" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="74" t="s">
+      <c r="M31" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="M31" s="74" t="s">
+      <c r="N31" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="O31" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="O31" s="74" t="s">
+      <c r="P31" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="P31" s="74" t="s">
+      <c r="Q31" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="Q31" s="74" t="s">
+      <c r="R31" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="R31" s="74" t="s">
+      <c r="S31" s="74" t="s">
         <v>76</v>
-      </c>
-      <c r="S31" s="74" t="s">
-        <v>77</v>
       </c>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
@@ -2816,7 +2771,7 @@
       <c r="AL31" s="11"/>
       <c r="AM31" s="11"/>
     </row>
-    <row r="32" spans="1:48" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="26.25" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
@@ -2829,46 +2784,46 @@
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -2889,7 +2844,7 @@
       <c r="AL32" s="11"/>
       <c r="AM32" s="11"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39">
       <c r="A33" s="11"/>
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
@@ -2930,53 +2885,53 @@
       <c r="AL33" s="11"/>
       <c r="AM33" s="11"/>
     </row>
-    <row r="34" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="30.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="31"/>
       <c r="E34" s="123" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="124" t="s">
+      <c r="H34" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="124" t="s">
+      <c r="I34" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="O34" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="S34" s="124" t="s">
         <v>94</v>
-      </c>
-      <c r="I34" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="124" t="s">
-        <v>104</v>
-      </c>
-      <c r="K34" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="124" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="124" t="s">
-        <v>101</v>
-      </c>
-      <c r="N34" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="O34" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="P34" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q34" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="R34" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="S34" s="124" t="s">
-        <v>95</v>
       </c>
       <c r="T34" s="125"/>
       <c r="U34" s="125"/>
@@ -2999,7 +2954,7 @@
       <c r="AL34" s="11"/>
       <c r="AM34" s="11"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39">
       <c r="A35" s="11"/>
       <c r="B35" s="31"/>
       <c r="V35" s="11"/>
@@ -3021,7 +2976,7 @@
       <c r="AL35" s="11"/>
       <c r="AM35" s="11"/>
     </row>
-    <row r="36" spans="1:39" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="7.5" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -3062,7 +3017,7 @@
       <c r="AL36" s="11"/>
       <c r="AM36" s="11"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3103,7 +3058,7 @@
       <c r="AL37" s="11"/>
       <c r="AM37" s="11"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3144,7 +3099,7 @@
       <c r="AL38" s="11"/>
       <c r="AM38" s="11"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3185,7 +3140,7 @@
       <c r="AL39" s="11"/>
       <c r="AM39" s="11"/>
     </row>
-    <row r="40" spans="1:39" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="6.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
@@ -3226,12 +3181,12 @@
       <c r="AL40" s="11"/>
       <c r="AM40" s="11"/>
     </row>
-    <row r="41" spans="1:39" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="44.25" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="50"/>
       <c r="C41" s="108"/>
       <c r="D41" s="109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="108"/>
       <c r="F41" s="11"/>
@@ -3269,7 +3224,7 @@
       <c r="AL41" s="11"/>
       <c r="AM41" s="11"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39">
       <c r="A42" s="11"/>
       <c r="B42" s="50"/>
       <c r="C42" s="4"/>
@@ -3310,15 +3265,15 @@
       <c r="AL42" s="11"/>
       <c r="AM42" s="11"/>
     </row>
-    <row r="43" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="40"/>
       <c r="C43" s="110"/>
       <c r="D43" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
@@ -3355,15 +3310,15 @@
       <c r="AL43" s="39"/>
       <c r="AM43" s="39"/>
     </row>
-    <row r="44" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
@@ -3400,18 +3355,18 @@
       <c r="AL44" s="39"/>
       <c r="AM44" s="39"/>
     </row>
-    <row r="45" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
       <c r="C45" s="112"/>
       <c r="D45" s="113" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E45" s="111" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
@@ -3447,15 +3402,15 @@
       <c r="AL45" s="39"/>
       <c r="AM45" s="39"/>
     </row>
-    <row r="46" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="40"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
@@ -3492,15 +3447,15 @@
       <c r="AL46" s="39"/>
       <c r="AM46" s="39"/>
     </row>
-    <row r="47" spans="1:39" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
       <c r="D47" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
@@ -3537,7 +3492,7 @@
       <c r="AL47" s="39"/>
       <c r="AM47" s="39"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3578,7 +3533,7 @@
       <c r="AL48" s="11"/>
       <c r="AM48" s="11"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3619,7 +3574,7 @@
       <c r="AL49" s="11"/>
       <c r="AM49" s="11"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3660,7 +3615,7 @@
       <c r="AL50" s="11"/>
       <c r="AM50" s="11"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3701,7 +3656,7 @@
       <c r="AL51" s="11"/>
       <c r="AM51" s="11"/>
     </row>
-    <row r="52" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="5.25" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -3742,12 +3697,12 @@
       <c r="AL52" s="11"/>
       <c r="AM52" s="11"/>
     </row>
-    <row r="53" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="39" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="50"/>
       <c r="C53" s="114"/>
       <c r="D53" s="109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="114"/>
       <c r="F53" s="11"/>
@@ -3785,7 +3740,7 @@
       <c r="AL53" s="11"/>
       <c r="AM53" s="11"/>
     </row>
-    <row r="54" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="13.5" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="50"/>
       <c r="C54" s="115"/>
@@ -3826,15 +3781,15 @@
       <c r="AL54" s="11"/>
       <c r="AM54" s="11"/>
     </row>
-    <row r="55" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="48"/>
       <c r="C55" s="110"/>
       <c r="D55" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -3871,15 +3826,15 @@
       <c r="AL55" s="10"/>
       <c r="AM55" s="10"/>
     </row>
-    <row r="56" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="48"/>
       <c r="C56" s="110"/>
       <c r="D56" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E56" s="111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -3916,15 +3871,15 @@
       <c r="AL56" s="10"/>
       <c r="AM56" s="10"/>
     </row>
-    <row r="57" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="48"/>
       <c r="C57" s="110"/>
       <c r="D57" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="111" t="s">
         <v>121</v>
-      </c>
-      <c r="E57" s="111" t="s">
-        <v>122</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -3961,7 +3916,7 @@
       <c r="AL57" s="10"/>
       <c r="AM57" s="10"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39">
       <c r="A58" s="11"/>
       <c r="B58" s="50"/>
       <c r="C58" s="4"/>
@@ -4002,7 +3957,7 @@
       <c r="AL58" s="11"/>
       <c r="AM58" s="11"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39">
       <c r="A59" s="11"/>
       <c r="B59" s="50"/>
       <c r="C59" s="4"/>
@@ -4043,7 +3998,7 @@
       <c r="AL59" s="11"/>
       <c r="AM59" s="11"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39">
       <c r="A60" s="11"/>
       <c r="B60" s="50"/>
       <c r="C60" s="4"/>
@@ -4084,7 +4039,7 @@
       <c r="AL60" s="11"/>
       <c r="AM60" s="11"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39">
       <c r="A61" s="11"/>
       <c r="B61" s="50"/>
       <c r="C61" s="4"/>
@@ -4125,14 +4080,14 @@
       <c r="AL61" s="11"/>
       <c r="AM61" s="11"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39">
       <c r="A62" s="11"/>
       <c r="B62" s="50"/>
       <c r="C62" s="4"/>
       <c r="D62" s="117"/>
       <c r="E62" s="4"/>
       <c r="F62" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
@@ -4168,20 +4123,20 @@
       <c r="AL62" s="11"/>
       <c r="AM62" s="11"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39">
       <c r="A63" s="11"/>
       <c r="B63" s="50"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G63" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="46" t="s">
         <v>108</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>109</v>
       </c>
       <c r="I63" s="46" t="s">
         <v>58</v>
@@ -4217,20 +4172,20 @@
       <c r="AL63" s="11"/>
       <c r="AM63" s="11"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39">
       <c r="A64" s="11"/>
       <c r="B64" s="50"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H64" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I64" s="46"/>
       <c r="J64" s="45"/>
@@ -4264,14 +4219,14 @@
       <c r="AL64" s="11"/>
       <c r="AM64" s="11"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39">
       <c r="A65" s="11"/>
       <c r="B65" s="50"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="46"/>
@@ -4307,20 +4262,20 @@
       <c r="AL65" s="11"/>
       <c r="AM65" s="11"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39">
       <c r="A66" s="11"/>
       <c r="B66" s="50"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G66" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="H66" s="46" t="s">
-        <v>112</v>
       </c>
       <c r="I66" s="46"/>
       <c r="J66" s="45"/>
@@ -4354,20 +4309,20 @@
       <c r="AL66" s="11"/>
       <c r="AM66" s="11"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39">
       <c r="A67" s="11"/>
       <c r="B67" s="50"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G67" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" s="46" t="s">
         <v>113</v>
-      </c>
-      <c r="H67" s="46" t="s">
-        <v>114</v>
       </c>
       <c r="I67" s="46"/>
       <c r="J67" s="45"/>
@@ -4401,15 +4356,15 @@
       <c r="AL67" s="11"/>
       <c r="AM67" s="11"/>
     </row>
-    <row r="68" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="48"/>
       <c r="C68" s="5"/>
       <c r="D68" s="111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -4446,15 +4401,15 @@
       <c r="AL68" s="10"/>
       <c r="AM68" s="10"/>
     </row>
-    <row r="69" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="48"/>
       <c r="C69" s="5"/>
       <c r="D69" s="111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" s="111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" s="107"/>
       <c r="G69" s="10"/>
@@ -4491,15 +4446,15 @@
       <c r="AL69" s="10"/>
       <c r="AM69" s="10"/>
     </row>
-    <row r="70" spans="1:39" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" s="6" customFormat="1" ht="36.75" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="48"/>
       <c r="C70" s="42"/>
       <c r="D70" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F70" s="107"/>
       <c r="G70" s="10"/>
@@ -4536,12 +4491,12 @@
       <c r="AL70" s="10"/>
       <c r="AM70" s="10"/>
     </row>
-    <row r="71" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="36.75" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="50"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="11"/>
@@ -4579,7 +4534,7 @@
       <c r="AL71" s="11"/>
       <c r="AM71" s="11"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4620,7 +4575,7 @@
       <c r="AL72" s="11"/>
       <c r="AM72" s="11"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4661,7 +4616,7 @@
       <c r="AL73" s="11"/>
       <c r="AM73" s="11"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4710,24 +4665,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
